--- a/Test Results/graph.xlsx
+++ b/Test Results/graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balaji/Documents/Github_New/HPC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balaji/Documents/Github_New/HPC/Betweenness-Centrality-using-OpenMp/Test Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE46D1-470C-0543-8FAD-1121330A072A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A87E519-74E1-6142-8C9F-D05B40C96015}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{B747E73F-A2B1-BE4A-A5B9-56EEC81429A9}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$2:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -132,8 +127,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Graph</a:t>
+              <a:t>Time</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for Betweenness Centrality calculation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -18485,7 +18485,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
